--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/123/word_level_predictions_123.xlsx
@@ -814,210 +814,210 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4749,11 +4749,11 @@
         </is>
       </c>
       <c r="I83" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K83" s="2" t="b">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G84" s="2" t="b">
@@ -4801,11 +4801,11 @@
         </is>
       </c>
       <c r="I84" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K84" s="2" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G85" s="2" t="b">
@@ -4853,11 +4853,11 @@
         </is>
       </c>
       <c r="I85" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K85" s="2" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G86" s="2" t="b">
@@ -4905,11 +4905,11 @@
         </is>
       </c>
       <c r="I86" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K86" s="2" t="b">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -7621,369 +7621,369 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/123/word_level_predictions_123.xlsx
@@ -814,210 +814,210 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4749,11 +4749,11 @@
         </is>
       </c>
       <c r="I83" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K83" s="2" t="b">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G84" s="2" t="b">
@@ -4801,11 +4801,11 @@
         </is>
       </c>
       <c r="I84" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K84" s="2" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G85" s="2" t="b">
@@ -4853,11 +4853,11 @@
         </is>
       </c>
       <c r="I85" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K85" s="2" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G86" s="2" t="b">
@@ -4905,11 +4905,11 @@
         </is>
       </c>
       <c r="I86" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K86" s="2" t="b">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7597,393 +7597,393 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>16</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>17</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>18</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>19</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>4</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>21</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>22</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
